--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Contacts.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Contacts.xlsx
@@ -96,7 +96,7 @@
 link_Click(removecontact_test_link);
 wait(2);
 link_Click(createcontact_test_link);
-wait(5);
+wait(10);
 Contactcount(contacts_id);
 link_Click(NewContact_test_link);
 validate4;
@@ -666,16 +666,16 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
@@ -761,9 +761,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Contacts.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_Contacts.xlsx
@@ -89,7 +89,7 @@
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
+    <t>wait(3);
 validate1;
 link_Click(contacts_test_link);
 validate2;
@@ -110,8 +110,7 @@
 validate5;
 wait(2);
 link_Click(test_link);
-validate6;
-</t>
+validate6;</t>
   </si>
 </sst>
 </file>
@@ -714,7 +713,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="319.5" thickBot="1">
+    <row r="2" spans="1:11" ht="306.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
